--- a/Sanity Sheet.xlsx
+++ b/Sanity Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aditya_shekhar\Desktop\ICICI\Projects\GPay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5151CCE-57BF-42D5-9671-399CA9495CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D0CCA5-9749-4C54-8489-6B883C06E1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{16167960-6CB0-4347-938F-D00E3A7A73A0}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
   <si>
     <t>Sr no</t>
   </si>
@@ -73,6 +73,12 @@
     <t>Observation</t>
   </si>
   <si>
+    <t>UPI</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
     <t>S1T1</t>
   </si>
   <si>
@@ -104,6 +110,42 @@
   </si>
   <si>
     <t>Response packet</t>
+  </si>
+  <si>
+    <t>Status shown as PENDING</t>
+  </si>
+  <si>
+    <t>S5T5 - t</t>
+  </si>
+  <si>
+    <t>S5T5 - t+1</t>
+  </si>
+  <si>
+    <t>S5T5 - t+2</t>
+  </si>
+  <si>
+    <t>S5T5 - t+3</t>
+  </si>
+  <si>
+    <t>S5T5 - t+4</t>
+  </si>
+  <si>
+    <t>S5T5 - t+5</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>SUCCESS/PENDING/FAILED</t>
+  </si>
+  <si>
+    <t>BLOCKED(settlement id)</t>
+  </si>
+  <si>
+    <t>BLOCKED(transaction id)</t>
   </si>
 </sst>
 </file>
@@ -512,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3E206C-67FE-439D-84BF-BF3B49EBE517}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -560,7 +602,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -574,9 +616,275 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="41" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="42" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="44" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="41" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="41.5" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="41" customHeight="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="40" customHeight="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="45" customHeight="1">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="44.5" customHeight="1">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F80A88-3352-45EE-BF00-B689B5B5CD54}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="9.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="6" width="17.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" customWidth="1"/>
+    <col min="9" max="9" width="16.90625" customWidth="1"/>
+    <col min="10" max="10" width="18.08984375" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="28">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="47" customHeight="1">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
@@ -592,9 +900,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
@@ -605,14 +915,16 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="42" customHeight="1">
+    <row r="4" spans="1:12" ht="41" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
@@ -623,14 +935,16 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="44" customHeight="1">
+    <row r="5" spans="1:12" ht="41" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
@@ -646,9 +960,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
@@ -659,14 +975,16 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="41.5" customHeight="1">
+    <row r="7" spans="1:12" ht="41" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
@@ -677,105 +995,194 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="41" customHeight="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="40" customHeight="1">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="45" customHeight="1">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="44.5" customHeight="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F80A88-3352-45EE-BF00-B689B5B5CD54}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6995721C-C4DB-4E99-B071-179615F69719}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.08984375" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" customWidth="1"/>
+    <col min="9" max="9" width="17.08984375" customWidth="1"/>
+    <col min="10" max="10" width="16.6328125" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="28">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="47" customHeight="1">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="41" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="41" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="41" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="41" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="41" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sanity Sheet.xlsx
+++ b/Sanity Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aditya_shekhar\Desktop\ICICI\Projects\GPay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D0CCA5-9749-4C54-8489-6B883C06E1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767F0D09-4E82-4F80-BC36-D9394D0523AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{16167960-6CB0-4347-938F-D00E3A7A73A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{16167960-6CB0-4347-938F-D00E3A7A73A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Deduplication" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
   <si>
     <t>Sr no</t>
   </si>
@@ -146,6 +146,24 @@
   </si>
   <si>
     <t>BLOCKED(transaction id)</t>
+  </si>
+  <si>
+    <t>Status Check initiated</t>
+  </si>
+  <si>
+    <t>Status Check initiated… Payment marked as PARKED_PENDING</t>
+  </si>
+  <si>
+    <t>Status shown as SUCCESS</t>
+  </si>
+  <si>
+    <t>Status shown as BLOCKED</t>
+  </si>
+  <si>
+    <t>Status shown as FAILED</t>
+  </si>
+  <si>
+    <t>Status shown as SUCCESS/PENDING/FAILED</t>
   </si>
 </sst>
 </file>
@@ -554,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3E206C-67FE-439D-84BF-BF3B49EBE517}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -820,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F80A88-3352-45EE-BF00-B689B5B5CD54}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -829,7 +847,7 @@
     <col min="2" max="2" width="9.26953125" customWidth="1"/>
     <col min="4" max="4" width="18.1796875" customWidth="1"/>
     <col min="5" max="6" width="17.6328125" customWidth="1"/>
-    <col min="7" max="7" width="10.90625" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" customWidth="1"/>
     <col min="8" max="8" width="18.81640625" customWidth="1"/>
     <col min="9" max="9" width="16.90625" customWidth="1"/>
     <col min="10" max="10" width="18.08984375" customWidth="1"/>
@@ -888,7 +906,9 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
@@ -908,7 +928,9 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="4"/>
@@ -928,7 +950,9 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4"/>
@@ -948,7 +972,9 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="4"/>
@@ -968,14 +994,16 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="41" customHeight="1">
+    <row r="7" spans="1:12" ht="80" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -988,7 +1016,9 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
@@ -1002,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6995721C-C4DB-4E99-B071-179615F69719}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1014,7 +1044,7 @@
     <col min="4" max="4" width="16.26953125" customWidth="1"/>
     <col min="5" max="5" width="14.26953125" customWidth="1"/>
     <col min="6" max="6" width="16.26953125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="7" max="7" width="21.36328125" customWidth="1"/>
     <col min="8" max="8" width="18.36328125" customWidth="1"/>
     <col min="9" max="9" width="17.08984375" customWidth="1"/>
     <col min="10" max="10" width="16.6328125" customWidth="1"/>
@@ -1065,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
@@ -1074,7 +1104,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1087,7 +1117,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
@@ -1095,7 +1125,9 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="4"/>
@@ -1107,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -1115,7 +1147,9 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4"/>
@@ -1127,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -1135,7 +1169,9 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="4"/>
@@ -1147,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
@@ -1155,19 +1191,21 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="41" customHeight="1">
+    <row r="7" spans="1:12" ht="60" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
@@ -1175,13 +1213,95 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
+    <row r="8" spans="1:12" ht="41" customHeight="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="40" customHeight="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="45" customHeight="1">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="44.5" customHeight="1">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
